--- a/Account/2023.xlsx
+++ b/Account/2023.xlsx
@@ -8,21 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498570E7-B5EB-43F8-A3AD-0A461ABA9917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCD2683-D922-4A33-AF4B-799829E3060E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
     <sheet name="February" sheetId="2" r:id="rId2"/>
     <sheet name="March" sheetId="3" r:id="rId3"/>
     <sheet name="April" sheetId="4" r:id="rId4"/>
+    <sheet name="May" sheetId="5" r:id="rId5"/>
+    <sheet name="June" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">April!$A$1:$H$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">February!$A$1:$H$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">January!$A$1:$H$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">March!$A$1:$H$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">May!$A$1:$H$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="154">
   <si>
     <t>Date</t>
   </si>
@@ -394,6 +397,117 @@
   </si>
   <si>
     <t>To CNB A/c</t>
+  </si>
+  <si>
+    <t>RD maturity</t>
+  </si>
+  <si>
+    <t>Health Insurance RD</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>RD amount</t>
+  </si>
+  <si>
+    <t>Amount given</t>
+  </si>
+  <si>
+    <t>Got the amount</t>
+  </si>
+  <si>
+    <t>Money returned</t>
+  </si>
+  <si>
+    <t>BSNL recharge</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Saloon</t>
+  </si>
+  <si>
+    <t>To AKP</t>
+  </si>
+  <si>
+    <t>from AKP</t>
+  </si>
+  <si>
+    <t>PL-12th month due</t>
+  </si>
+  <si>
+    <t>12 more dues</t>
+  </si>
+  <si>
+    <t>SUN NXT</t>
+  </si>
+  <si>
+    <t>Insurance Renewal</t>
+  </si>
+  <si>
+    <t>to Pradeep</t>
+  </si>
+  <si>
+    <t>Surgery Blade</t>
+  </si>
+  <si>
+    <t>Dress</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recharge </t>
+  </si>
+  <si>
+    <t>Suresh Recharge</t>
+  </si>
+  <si>
+    <t>Successgyan</t>
+  </si>
+  <si>
+    <t>Cleared</t>
+  </si>
+  <si>
+    <t>May month Salary</t>
+  </si>
+  <si>
+    <t>Money given</t>
+  </si>
+  <si>
+    <t>to RX Suresh</t>
+  </si>
+  <si>
+    <t>Amount returned</t>
+  </si>
+  <si>
+    <t>Bookchor</t>
+  </si>
+  <si>
+    <t>Rashmika Bday gift</t>
+  </si>
+  <si>
+    <t>PL-13th month due</t>
+  </si>
+  <si>
+    <t>11 dues left</t>
+  </si>
+  <si>
+    <t>HDFC Insurance Renewal</t>
+  </si>
+  <si>
+    <t>2nd Renewal</t>
+  </si>
+  <si>
+    <t>3 more renewals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie </t>
+  </si>
+  <si>
+    <t>Por-Thozhil</t>
   </si>
 </sst>
 </file>
@@ -3430,10 +3544,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCF7A1D-F853-44AA-ABC4-8734B2366FA4}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:F47"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3785,7 +3899,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>45023</v>
       </c>
@@ -3806,7 +3920,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>45025</v>
       </c>
@@ -3827,7 +3941,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>45025</v>
       </c>
@@ -3848,7 +3962,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>45029</v>
       </c>
@@ -3869,7 +3983,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>45030</v>
       </c>
@@ -3890,7 +4004,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>45031</v>
       </c>
@@ -3911,7 +4025,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>45031</v>
       </c>
@@ -3937,8 +4051,11 @@
         <f>4217+388+388</f>
         <v>4993</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>45031</v>
       </c>
@@ -3959,7 +4076,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>45033</v>
       </c>
@@ -3980,7 +4097,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>45033</v>
       </c>
@@ -4001,7 +4118,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>45034</v>
       </c>
@@ -4022,7 +4139,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>45035</v>
       </c>
@@ -4043,7 +4160,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>45035</v>
       </c>
@@ -4064,7 +4181,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>45035</v>
       </c>
@@ -4085,7 +4202,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>45037</v>
       </c>
@@ -4106,7 +4223,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>45037</v>
       </c>
@@ -4268,7 +4385,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="0"/>
+        <f>F38+B39-C39-G39</f>
         <v>65010.22</v>
       </c>
       <c r="G39" s="5"/>
@@ -4397,4 +4514,1375 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6325A894-F6BA-4597-B405-1300600FD8C1}">
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
+        <v>65010.22</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>45047</v>
+      </c>
+      <c r="B3" s="5">
+        <v>18234</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="5">
+        <f>F2+B3-C3-G3</f>
+        <v>83244.22</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>45047</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F42" si="0">F3+B4-C4-G4</f>
+        <v>80244.22</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>45048</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5">
+        <v>300</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>79944.22</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>45049</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3500</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>83444.22</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>45050</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
+        <v>107</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>83337.22</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>45050</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <v>500</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>82837.22</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>45052</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5">
+        <v>150</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>82687.22</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>45053</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>82667.22</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>45053</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5">
+        <v>8000</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>74667.22</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>45053</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5000</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>79667.22</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>45053</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5">
+        <v>40</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>79627.22</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>45053</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5">
+        <v>46492</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>33135.22</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>45053</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5">
+        <v>15000</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>18135.22</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>45054</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5">
+        <v>251</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>17884.22</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>45056</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5">
+        <v>188</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>17696.22</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>45056</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5">
+        <v>409</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>17287.22</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>45057</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5">
+        <v>270</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>17017.22</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>45058</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5">
+        <v>200</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
+        <v>16817.22</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>45059</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
+        <v>15817.220000000001</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>45060</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5">
+        <v>799</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>15018.220000000001</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>45061</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5">
+        <v>70</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
+        <v>14948.220000000001</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>45061</v>
+      </c>
+      <c r="B24" s="5">
+        <v>50000</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="0"/>
+        <v>64948.22</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>45062</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5">
+        <v>191</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
+        <v>64757.22</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>45062</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5">
+        <v>388</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
+        <v>64369.22</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>45064</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="7">
+        <v>5000</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
+        <v>59369.22</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <v>45066</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="7">
+        <v>170</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
+        <v>59199.22</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>45068</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="7">
+        <v>40</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
+        <v>59159.22</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>45068</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="7">
+        <v>60</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
+        <v>59099.22</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>45070</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="7">
+        <v>16.71</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="0"/>
+        <v>59082.51</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>45070</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="7">
+        <v>424</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="0"/>
+        <v>58658.51</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>45070</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="7">
+        <v>200</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="0"/>
+        <v>58458.51</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>45072</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="7">
+        <v>107</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="0"/>
+        <v>58351.51</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
+        <v>45072</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="7">
+        <v>107</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="0"/>
+        <v>58244.51</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
+        <v>45073</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="7">
+        <v>241</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="0"/>
+        <v>58003.51</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
+        <v>45074</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="7">
+        <v>99</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="0"/>
+        <v>57904.51</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
+        <v>45077</v>
+      </c>
+      <c r="B38" s="5">
+        <v>96744</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="0"/>
+        <v>154648.51</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>45077</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5">
+        <v>25000</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="0"/>
+        <v>129648.51000000001</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
+        <v>45077</v>
+      </c>
+      <c r="B40" s="5">
+        <v>20000</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="0"/>
+        <v>149648.51</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>45077</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5">
+        <v>300</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="0"/>
+        <v>149348.51</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>45077</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5">
+        <v>500</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="0"/>
+        <v>148848.51</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5">
+        <f>300+500+20+40+251+70+40+60</f>
+        <v>1281</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5">
+        <f>200+200+300</f>
+        <v>700</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="12">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="9">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="12">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="9">
+        <v>0</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="12">
+        <v>148848.51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="10">
+        <v>799</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5">
+        <f>188+409+270</f>
+        <v>867</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="5">
+        <f>SUM(C46:C53)</f>
+        <v>3647</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H42" xr:uid="{6325A894-F6BA-4597-B405-1300600FD8C1}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE6A3EF-1D4C-4DBE-9B69-948177F53D35}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
+        <v>148848.51</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>45078</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F2:F15" si="0">F2+B3-C3-G3</f>
+        <v>145848.51</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>45079</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>142848.51</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>45079</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5">
+        <v>9000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>133848.51</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>45082</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5">
+        <v>1099</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>132749.51</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>45082</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
+        <v>24.82</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>132724.69</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>45084</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <v>46492</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>86232.69</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>45085</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7">
+        <v>200</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>86032.69</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>45086</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7">
+        <v>77948</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>8084.6900000000023</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>45086</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7">
+        <v>109</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>7975.6900000000023</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>45087</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7">
+        <v>70</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>7905.6900000000023</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>45087</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="7">
+        <v>200</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>7705.6900000000023</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>45088</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="7">
+        <v>65</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>7640.6900000000023</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>45088</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="7">
+        <v>220</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>7420.6900000000023</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Account/2023.xlsx
+++ b/Account/2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCD2683-D922-4A33-AF4B-799829E3060E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF22E9FE-5589-498A-95E0-6A92A16A58E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
@@ -608,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -622,10 +622,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -635,9 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1093,10 +1087,10 @@
       <c r="C8" s="5">
         <v>175.08</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="5">
@@ -1114,10 +1108,10 @@
       <c r="C9" s="5">
         <v>40</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="5">
@@ -1135,10 +1129,10 @@
       <c r="C10" s="5">
         <v>350</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="5">
@@ -1156,10 +1150,10 @@
       <c r="C11" s="5">
         <v>25</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="5">
@@ -1177,10 +1171,10 @@
       <c r="C12" s="5">
         <v>2600</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="5">
@@ -1220,13 +1214,13 @@
         <v>44933</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>109</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="5">
@@ -1241,13 +1235,13 @@
         <v>44933</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>40</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="5">
@@ -1262,7 +1256,7 @@
         <v>44933</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>300</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1283,13 +1277,13 @@
         <v>44933</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>50</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="5">
@@ -1304,13 +1298,13 @@
         <v>44934</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <v>200</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="5">
@@ -1325,13 +1319,13 @@
         <v>44934</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>330</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="5">
@@ -1346,13 +1340,13 @@
         <v>44937</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="7">
+      <c r="C20" s="5">
         <v>2859</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="5">
@@ -1367,13 +1361,13 @@
         <v>44939</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="7">
+      <c r="C21" s="5">
         <v>500</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F21" s="5">
@@ -1388,13 +1382,13 @@
         <v>44939</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="7">
+      <c r="C22" s="5">
         <v>1000</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="5">
@@ -1409,13 +1403,13 @@
         <v>44941</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <v>538</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="D23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="5">
@@ -1478,13 +1472,13 @@
         <v>44946</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="7">
+      <c r="C26" s="5">
         <v>307.16000000000003</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F26" s="5">
@@ -1499,13 +1493,13 @@
         <v>44947</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="7">
+      <c r="C27" s="5">
         <v>150</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="5">
@@ -1520,13 +1514,13 @@
         <v>44951</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="7">
+      <c r="C28" s="5">
         <v>2000</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F28" s="5">
@@ -1541,13 +1535,13 @@
         <v>44954</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="7">
+      <c r="C29" s="5">
         <v>560</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="8" t="s">
+      <c r="D29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="5">
@@ -1562,13 +1556,13 @@
         <v>44955</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="7">
+      <c r="C30" s="5">
         <v>175</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="D30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="5">
@@ -1583,13 +1577,13 @@
         <v>44955</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="7">
+      <c r="C31" s="5">
         <v>500</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F31" s="5">
@@ -1604,13 +1598,13 @@
         <v>44956</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="7">
+      <c r="C32" s="5">
         <v>47</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="8" t="s">
+      <c r="D32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="5">
@@ -1649,10 +1643,10 @@
         <v>88106</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F34" s="5">
@@ -1667,13 +1661,13 @@
         <v>44957</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="7">
+      <c r="C35" s="5">
         <v>21000</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F35" s="5">
@@ -1688,13 +1682,13 @@
         <v>44957</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="7">
+      <c r="C36" s="5">
         <v>3000</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F36" s="5">
@@ -1709,13 +1703,13 @@
         <v>44957</v>
       </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="7">
+      <c r="C37" s="5">
         <v>5000</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F37" s="5">
@@ -1734,10 +1728,10 @@
         <f>40+25+40+50+330+538+560+175+47+210</f>
         <v>2015</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="10">
         <v>5000</v>
       </c>
     </row>
@@ -1750,10 +1744,10 @@
         <f>300+200+500</f>
         <v>1000</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="10">
         <v>27000</v>
       </c>
     </row>
@@ -1762,13 +1756,13 @@
         <v>45</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="9">
+      <c r="C42" s="7">
         <v>350</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="10">
         <v>7000</v>
       </c>
     </row>
@@ -1777,13 +1771,13 @@
         <v>46</v>
       </c>
       <c r="B43" s="5"/>
-      <c r="C43" s="9">
+      <c r="C43" s="7">
         <v>890</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="10">
         <v>66893.210000000006</v>
       </c>
     </row>
@@ -1792,13 +1786,13 @@
         <v>47</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="10">
+      <c r="C44" s="8">
         <v>807.16</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1810,10 +1804,10 @@
       <c r="C45" s="5">
         <v>150</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="13">
         <v>67480.23</v>
       </c>
     </row>
@@ -1825,10 +1819,10 @@
       <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="20"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="5">
         <v>0</v>
       </c>
@@ -1980,10 +1974,10 @@
       <c r="C6" s="5">
         <v>237.98</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="5">
@@ -2001,7 +1995,7 @@
       <c r="C7" s="5">
         <v>11457</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -2024,7 +2018,7 @@
         <v>10000</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -2065,10 +2059,10 @@
         <v>44964</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -2086,10 +2080,10 @@
         <v>44968</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>10</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -2107,10 +2101,10 @@
         <v>44968</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>550</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -2128,10 +2122,10 @@
         <v>44968</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>500</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -2149,10 +2143,10 @@
         <v>44969</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>160</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -2170,10 +2164,10 @@
         <v>44970</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>200</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -2191,13 +2185,13 @@
         <v>44971</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>1000</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="5">
@@ -2260,13 +2254,13 @@
         <v>44974</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>107</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="5">
@@ -2281,13 +2275,13 @@
         <v>44975</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="7">
+      <c r="C20" s="5">
         <v>40</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="5">
@@ -2302,13 +2296,13 @@
         <v>44978</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="7">
+      <c r="C21" s="5">
         <v>200</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F21" s="5">
@@ -2323,13 +2317,13 @@
         <v>44980</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="7">
+      <c r="C22" s="5">
         <v>41</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="D22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="5">
@@ -2340,17 +2334,17 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="16">
+      <c r="A23" s="6">
         <v>44982</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <v>405</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="4" t="s">
         <v>65</v>
       </c>
       <c r="F23" s="5">
@@ -2365,13 +2359,13 @@
         <v>44984</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <v>60</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="5">
@@ -2385,14 +2379,14 @@
       <c r="A25" s="6">
         <v>44985</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>89356</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="4" t="s">
         <v>75</v>
       </c>
       <c r="F25" s="5">
@@ -2407,13 +2401,13 @@
         <v>44985</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="7">
+      <c r="C26" s="5">
         <v>21000</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F26" s="5">
@@ -2432,10 +2426,10 @@
         <f>10+160+40+41+60</f>
         <v>311</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="10">
         <v>8000</v>
       </c>
     </row>
@@ -2448,10 +2442,10 @@
         <f>200+500+200+200</f>
         <v>1100</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="10">
         <v>33000</v>
       </c>
     </row>
@@ -2460,13 +2454,13 @@
         <v>45</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="9">
+      <c r="C31" s="7">
         <v>495</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="10">
         <v>7000</v>
       </c>
     </row>
@@ -2475,13 +2469,13 @@
         <v>46</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="9">
+      <c r="C32" s="7">
         <v>0</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="10">
         <v>79642</v>
       </c>
     </row>
@@ -2490,13 +2484,13 @@
         <v>47</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="10">
+      <c r="C33" s="8">
         <v>0</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2508,10 +2502,10 @@
       <c r="C34" s="5">
         <v>0</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="13">
         <v>21881.23</v>
       </c>
     </row>
@@ -2523,10 +2517,10 @@
       <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="17"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="5">
         <v>0</v>
       </c>
@@ -2623,10 +2617,10 @@
       <c r="C3" s="5">
         <v>3000</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="5">
@@ -2644,10 +2638,10 @@
       <c r="C4" s="5">
         <v>3000</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="5">
@@ -2686,10 +2680,10 @@
       <c r="C6" s="5">
         <v>8000</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F6" s="5">
@@ -2707,7 +2701,7 @@
       <c r="C7" s="5">
         <v>894</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -2728,7 +2722,7 @@
       <c r="C8" s="5">
         <v>274</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -2809,13 +2803,13 @@
         <v>44990</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>38.11</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="5">
@@ -2830,13 +2824,13 @@
         <v>44991</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>40</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="5">
@@ -2877,10 +2871,10 @@
         <v>11000</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>82</v>
       </c>
       <c r="F15" s="5">
@@ -2898,10 +2892,10 @@
       <c r="C16" s="5">
         <v>11036</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="4" t="s">
         <v>84</v>
       </c>
       <c r="F16" s="5">
@@ -2921,10 +2915,10 @@
       <c r="C17" s="5">
         <v>99</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="5">
@@ -2942,10 +2936,10 @@
       <c r="C18" s="5">
         <v>84</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="5">
@@ -2960,13 +2954,13 @@
         <v>44999</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>1000</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="5">
@@ -2984,10 +2978,10 @@
         <v>31197</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="4" t="s">
         <v>85</v>
       </c>
       <c r="F20" s="5">
@@ -3005,10 +2999,10 @@
       <c r="C21" s="5">
         <v>30000</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F21" s="5">
@@ -3065,13 +3059,13 @@
         <v>45003</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <v>500</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F24" s="5">
@@ -3086,13 +3080,13 @@
         <v>45005</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="7">
+      <c r="C25" s="5">
         <v>676</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F25" s="5">
@@ -3107,13 +3101,13 @@
         <v>45008</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="7">
+      <c r="C26" s="5">
         <v>36</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="D26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="5">
@@ -3128,13 +3122,13 @@
         <v>45008</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="7">
+      <c r="C27" s="5">
         <v>200</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F27" s="5">
@@ -3149,13 +3143,13 @@
         <v>45009</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="7">
+      <c r="C28" s="5">
         <v>188</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F28" s="5">
@@ -3170,13 +3164,13 @@
         <v>45011</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="7">
+      <c r="C29" s="5">
         <v>240</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="8" t="s">
+      <c r="D29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="5">
@@ -3191,13 +3185,13 @@
         <v>45013</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="7">
+      <c r="C30" s="5">
         <v>60</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="D30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="5">
@@ -3212,13 +3206,13 @@
         <v>45013</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="7">
+      <c r="C31" s="5">
         <v>240</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F31" s="5">
@@ -3233,13 +3227,13 @@
         <v>45013</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="7">
+      <c r="C32" s="5">
         <v>899</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F32" s="5">
@@ -3254,13 +3248,13 @@
         <v>45013</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="7">
+      <c r="C33" s="5">
         <v>250</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F33" s="5">
@@ -3275,13 +3269,13 @@
         <v>45014</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="7">
+      <c r="C34" s="5">
         <v>439</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="14" t="s">
         <v>91</v>
       </c>
       <c r="F34" s="5">
@@ -3296,13 +3290,13 @@
         <v>45015</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="7">
+      <c r="C35" s="5">
         <v>107</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="5">
@@ -3316,14 +3310,14 @@
       <c r="A36" s="6">
         <v>45016</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="15">
         <v>90147</v>
       </c>
       <c r="C36" s="5"/>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="4" t="s">
         <v>93</v>
       </c>
       <c r="F36" s="5">
@@ -3341,10 +3335,10 @@
       <c r="C37" s="5">
         <v>21000</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F37" s="5">
@@ -3362,10 +3356,10 @@
       <c r="C38" s="5">
         <v>8000</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F38" s="5">
@@ -3383,10 +3377,10 @@
       <c r="C39" s="5">
         <v>150</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F39" s="5">
@@ -3404,10 +3398,10 @@
       <c r="C40" s="5">
         <v>630</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="8" t="s">
+      <c r="D40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="5">
@@ -3426,10 +3420,10 @@
         <f>40+99+84+36+240+60+630</f>
         <v>1189</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="10">
         <v>8000</v>
       </c>
     </row>
@@ -3442,10 +3436,10 @@
         <f>200+200+500+200+150</f>
         <v>1250</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="10">
         <v>40000</v>
       </c>
     </row>
@@ -3454,13 +3448,13 @@
         <v>45</v>
       </c>
       <c r="B45" s="5"/>
-      <c r="C45" s="9">
+      <c r="C45" s="7">
         <v>380</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="10">
         <v>7000</v>
       </c>
     </row>
@@ -3469,13 +3463,13 @@
         <v>46</v>
       </c>
       <c r="B46" s="5"/>
-      <c r="C46" s="9">
+      <c r="C46" s="7">
         <v>0</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="10">
         <v>72785.22</v>
       </c>
     </row>
@@ -3484,13 +3478,13 @@
         <v>47</v>
       </c>
       <c r="B47" s="5"/>
-      <c r="C47" s="10">
+      <c r="C47" s="8">
         <v>0</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="11">
         <v>6</v>
       </c>
     </row>
@@ -3503,10 +3497,10 @@
         <f>894+676+188+250</f>
         <v>2008</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="10">
         <v>51881.03</v>
       </c>
     </row>
@@ -3518,10 +3512,10 @@
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="17"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="5">
         <v>439</v>
       </c>
@@ -3546,7 +3540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCF7A1D-F853-44AA-ABC4-8734B2366FA4}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A42" sqref="A42:F50"/>
     </sheetView>
   </sheetViews>
@@ -3607,10 +3601,10 @@
       <c r="C3" s="5">
         <v>3000</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="5">
@@ -3628,10 +3622,10 @@
       <c r="C4" s="5">
         <v>3000</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="5">
@@ -3649,10 +3643,10 @@
         <v>191</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="5">
@@ -3670,7 +3664,7 @@
       <c r="C6" s="5">
         <v>5082</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>95</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -3691,14 +3685,14 @@
       <c r="C7" s="5">
         <v>200</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" ref="F7:F39" si="0">F6+B7-C7-G7</f>
+        <f t="shared" ref="F7:F38" si="0">F6+B7-C7-G7</f>
         <v>61694.22</v>
       </c>
       <c r="G7" s="5"/>
@@ -3712,7 +3706,7 @@
       <c r="C8" s="5">
         <v>60</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -3733,7 +3727,7 @@
       <c r="C9" s="5">
         <v>400</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>97</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -3754,7 +3748,7 @@
       <c r="C10" s="5">
         <v>5749</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -3775,7 +3769,7 @@
         <v>10000</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -3796,10 +3790,10 @@
         <v>2000</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>103</v>
       </c>
       <c r="F12" s="5">
@@ -3819,10 +3813,10 @@
       <c r="C13" s="5">
         <v>999</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>106</v>
       </c>
       <c r="F13" s="5">
@@ -3840,10 +3834,10 @@
       <c r="C14" s="5">
         <v>12730</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="4" t="s">
         <v>84</v>
       </c>
       <c r="F14" s="5">
@@ -3863,10 +3857,10 @@
         <v>12000</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>108</v>
       </c>
       <c r="F15" s="5">
@@ -3884,10 +3878,10 @@
         <v>20000</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>103</v>
       </c>
       <c r="F16" s="5">
@@ -3925,13 +3919,13 @@
         <v>45025</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <v>3500</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>111</v>
       </c>
       <c r="F18" s="5">
@@ -3946,13 +3940,13 @@
         <v>45025</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>290</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="5">
@@ -3967,13 +3961,13 @@
         <v>45029</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="7">
+      <c r="C20" s="5">
         <v>1000</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="5">
@@ -3988,13 +3982,13 @@
         <v>45030</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="7">
+      <c r="C21" s="5">
         <v>366</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="5">
@@ -4060,13 +4054,13 @@
         <v>45031</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <v>40</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="5">
@@ -4081,13 +4075,13 @@
         <v>45033</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="7">
+      <c r="C25" s="5">
         <v>200</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="5">
@@ -4102,13 +4096,13 @@
         <v>45033</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="7">
+      <c r="C26" s="5">
         <v>99</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F26" s="5">
@@ -4123,13 +4117,13 @@
         <v>45034</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="7">
+      <c r="C27" s="5">
         <v>500</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="8" t="s">
+      <c r="D27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="5">
@@ -4147,10 +4141,10 @@
         <v>5000</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="4" t="s">
         <v>113</v>
       </c>
       <c r="F28" s="5">
@@ -4168,10 +4162,10 @@
       <c r="C29" s="5">
         <v>25000</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F29" s="5">
@@ -4189,10 +4183,10 @@
       <c r="C30" s="5">
         <v>161</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="D30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="5">
@@ -4210,10 +4204,10 @@
       <c r="C31" s="5">
         <v>120</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F31" s="5">
@@ -4231,10 +4225,10 @@
       <c r="C32" s="5">
         <v>100</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="8" t="s">
+      <c r="D32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="5">
@@ -4252,10 +4246,10 @@
       <c r="C33" s="5">
         <v>200</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F33" s="5">
@@ -4273,10 +4267,10 @@
       <c r="C34" s="5">
         <v>107</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F34" s="5">
@@ -4294,10 +4288,10 @@
         <v>96744</v>
       </c>
       <c r="C35" s="5"/>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="4" t="s">
         <v>115</v>
       </c>
       <c r="F35" s="5">
@@ -4315,10 +4309,10 @@
       <c r="C36" s="5">
         <v>40000</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="4" t="s">
         <v>116</v>
       </c>
       <c r="F36" s="5">
@@ -4336,10 +4330,10 @@
       <c r="C37" s="5">
         <v>420</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="8" t="s">
+      <c r="D37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F37" s="5">
@@ -4357,10 +4351,10 @@
       <c r="C38" s="5">
         <v>330</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="8" t="s">
+      <c r="D38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F38" s="5">
@@ -4378,10 +4372,10 @@
       <c r="C39" s="5">
         <v>3000</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="5">
@@ -4400,10 +4394,10 @@
         <f>60+366+40+500+161+100+420+330</f>
         <v>1977</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="10">
         <v>15000</v>
       </c>
     </row>
@@ -4416,10 +4410,10 @@
         <f>200+200+120+200</f>
         <v>720</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="10">
         <v>29000</v>
       </c>
     </row>
@@ -4428,13 +4422,13 @@
         <v>45</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="9">
+      <c r="C44" s="7">
         <v>0</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="10">
         <v>7000</v>
       </c>
     </row>
@@ -4443,13 +4437,13 @@
         <v>46</v>
       </c>
       <c r="B45" s="5"/>
-      <c r="C45" s="9">
+      <c r="C45" s="7">
         <v>0</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="10">
         <v>65010.22</v>
       </c>
     </row>
@@ -4458,13 +4452,13 @@
         <v>47</v>
       </c>
       <c r="B46" s="5"/>
-      <c r="C46" s="10">
+      <c r="C46" s="8">
         <v>999</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="11">
         <v>0</v>
       </c>
     </row>
@@ -4476,10 +4470,10 @@
       <c r="C47" s="5">
         <v>0</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="10">
         <v>54184.23</v>
       </c>
     </row>
@@ -4491,10 +4485,10 @@
       <c r="C48" s="5"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="17"/>
+      <c r="B49" s="5"/>
       <c r="C49" s="5">
         <v>0</v>
       </c>
@@ -4520,7 +4514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6325A894-F6BA-4597-B405-1300600FD8C1}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="C14" sqref="C14:E14"/>
     </sheetView>
   </sheetViews>
@@ -4838,10 +4832,10 @@
       <c r="C15" s="5">
         <v>15000</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="4" t="s">
         <v>84</v>
       </c>
       <c r="F15" s="5">
@@ -4859,7 +4853,7 @@
       <c r="C16" s="5">
         <v>251</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -4880,7 +4874,7 @@
       <c r="C17" s="5">
         <v>188</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -4901,7 +4895,7 @@
       <c r="C18" s="5">
         <v>409</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -4922,7 +4916,7 @@
       <c r="C19" s="5">
         <v>270</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -4943,7 +4937,7 @@
       <c r="C20" s="5">
         <v>200</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -4964,7 +4958,7 @@
       <c r="C21" s="5">
         <v>1000</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -4985,7 +4979,7 @@
       <c r="C22" s="5">
         <v>799</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>131</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -5006,7 +5000,7 @@
       <c r="C23" s="5">
         <v>70</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -5027,7 +5021,7 @@
         <v>50000</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -5087,10 +5081,10 @@
         <v>45064</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="7">
+      <c r="C27" s="5">
         <v>5000</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>133</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -5108,10 +5102,10 @@
         <v>45066</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="7">
+      <c r="C28" s="5">
         <v>170</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -5129,10 +5123,10 @@
         <v>45068</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="7">
+      <c r="C29" s="5">
         <v>40</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -5150,10 +5144,10 @@
         <v>45068</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="7">
+      <c r="C30" s="5">
         <v>60</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -5171,10 +5165,10 @@
         <v>45070</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="7">
+      <c r="C31" s="5">
         <v>16.71</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -5192,10 +5186,10 @@
         <v>45070</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="7">
+      <c r="C32" s="5">
         <v>424</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>136</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -5213,10 +5207,10 @@
         <v>45070</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="7">
+      <c r="C33" s="5">
         <v>200</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="5" t="s">
@@ -5234,10 +5228,10 @@
         <v>45072</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="7">
+      <c r="C34" s="5">
         <v>107</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>137</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -5255,10 +5249,10 @@
         <v>45072</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="7">
+      <c r="C35" s="5">
         <v>107</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>137</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -5276,10 +5270,10 @@
         <v>45073</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="7">
+      <c r="C36" s="5">
         <v>241</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>137</v>
       </c>
       <c r="E36" s="5" t="s">
@@ -5297,10 +5291,10 @@
         <v>45074</v>
       </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="7">
+      <c r="C37" s="5">
         <v>99</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -5321,10 +5315,10 @@
         <v>96744</v>
       </c>
       <c r="C38" s="5"/>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="4" t="s">
         <v>141</v>
       </c>
       <c r="F38" s="5">
@@ -5342,10 +5336,10 @@
       <c r="C39" s="5">
         <v>25000</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F39" s="5">
@@ -5363,7 +5357,7 @@
         <v>20000</v>
       </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E40" s="5" t="s">
@@ -5384,7 +5378,7 @@
       <c r="C41" s="5">
         <v>300</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E41" s="5" t="s">
@@ -5405,7 +5399,7 @@
       <c r="C42" s="5">
         <v>500</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E42" s="5" t="s">
@@ -5429,10 +5423,10 @@
         <f>300+500+20+40+251+70+40+60</f>
         <v>1281</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5445,10 +5439,10 @@
         <f>200+200+300</f>
         <v>700</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="10">
         <v>36000</v>
       </c>
     </row>
@@ -5457,13 +5451,13 @@
         <v>45</v>
       </c>
       <c r="B48" s="5"/>
-      <c r="C48" s="9">
+      <c r="C48" s="7">
         <v>0</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="10">
         <v>7000</v>
       </c>
     </row>
@@ -5472,13 +5466,13 @@
         <v>46</v>
       </c>
       <c r="B49" s="5"/>
-      <c r="C49" s="9">
+      <c r="C49" s="7">
         <v>0</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="10">
         <v>148848.51</v>
       </c>
     </row>
@@ -5487,13 +5481,13 @@
         <v>47</v>
       </c>
       <c r="B50" s="5"/>
-      <c r="C50" s="10">
+      <c r="C50" s="8">
         <v>799</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="11">
         <v>0</v>
       </c>
     </row>
@@ -5506,10 +5500,10 @@
         <f>188+409+270</f>
         <v>867</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="10">
         <v>2000</v>
       </c>
     </row>
@@ -5521,10 +5515,10 @@
       <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="17"/>
+      <c r="B53" s="5"/>
       <c r="C53" s="5">
         <v>0</v>
       </c>
@@ -5550,7 +5544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE6A3EF-1D4C-4DBE-9B69-948177F53D35}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -5619,7 +5613,7 @@
         <v>119</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F2:F15" si="0">F2+B3-C3-G3</f>
+        <f t="shared" ref="F3:F15" si="0">F2+B3-C3-G3</f>
         <v>145848.51</v>
       </c>
       <c r="G3" s="5"/>
@@ -5737,10 +5731,10 @@
         <v>45085</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>200</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -5758,10 +5752,10 @@
         <v>45086</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>77948</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>149</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -5781,10 +5775,10 @@
         <v>45086</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>109</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -5802,10 +5796,10 @@
         <v>45087</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>70</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>126</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -5823,10 +5817,10 @@
         <v>45087</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>200</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -5844,10 +5838,10 @@
         <v>45088</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>65</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -5865,10 +5859,10 @@
         <v>45088</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>220</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>152</v>
       </c>
       <c r="E15" s="5" t="s">
